--- a/Ódor Artúr/OKTV/2_2023.24/Vas-fizika.xlsx
+++ b/Ódor Artúr/OKTV/2_2023.24/Vas-fizika.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c21c437aeb2245f/Dokumentumok/fakt2025/Ódor Artúr/OKTV/2_2023.24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="8_{A3F3F45B-04F5-4CE1-BE1B-5222077EE20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D0F4E3F-F0BA-4182-BCC2-BE2869381E90}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="8_{A3F3F45B-04F5-4CE1-BE1B-5222077EE20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AC946A2-B898-4BDA-A75D-70A8BF4366DD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{5E8ED15F-4E5B-4ECD-9A1C-AA9F3EC56373}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5E8ED15F-4E5B-4ECD-9A1C-AA9F3EC56373}"/>
   </bookViews>
   <sheets>
     <sheet name="Elemek" sheetId="1" r:id="rId1"/>
@@ -4119,7 +4119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27B7274-5ECB-4D13-A431-5F1E0D0AFAD3}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
@@ -7809,8 +7809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601F8192-DFAA-4A9F-B666-72AC994EB514}">
   <dimension ref="A1:T990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="B404" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R416" sqref="R416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29384,7 +29384,7 @@
         <v>Sn</v>
       </c>
       <c r="R415" t="e">
-        <f t="shared" si="19"/>
+        <f>IF(NOT(ISBLANK(O415)),O415,ROUNDDOWN(AVERAGE($O$2:$O$990),2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S415" t="e">
